--- a/CashFlow/TEL_cashflow.xlsx
+++ b/CashFlow/TEL_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>8377000000.0</v>
+        <v>-150000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>8244000000.0</v>
+        <v>-58000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>6002000000.0</v>
+        <v>-89000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>4175000000.0</v>
+        <v>-219000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1959000000.0</v>
+        <v>-17000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>7000000.0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>381000000.0</v>
+        <v>5969000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>175000000.0</v>
+        <v>5566000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-359000000.0</v>
+        <v>3752000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-228000000.0</v>
+        <v>2608000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-39000000.0</v>
+        <v>1396000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-10000000.0</v>
